--- a/collectionOfGrade.xlsx
+++ b/collectionOfGrade.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mangc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mangc\Desktop\ReportCard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61665BB4-D502-4C84-99E8-E15AB1C948C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D88226-F039-42D2-9D7D-4EC6F2736D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="1020" windowWidth="15150" windowHeight="13665" xr2:uid="{7261792D-98E8-4AC5-8F75-EE6996BCDD4F}"/>
+    <workbookView xWindow="2430" yWindow="855" windowWidth="15150" windowHeight="13665" xr2:uid="{7261792D-98E8-4AC5-8F75-EE6996BCDD4F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="성적표" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/collectionOfGrade.xlsx
+++ b/collectionOfGrade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mangc\Desktop\ReportCard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D88226-F039-42D2-9D7D-4EC6F2736D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742E8D5B-7BCD-41FF-81CF-37DE767A0B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="855" windowWidth="15150" windowHeight="13665" xr2:uid="{7261792D-98E8-4AC5-8F75-EE6996BCDD4F}"/>
+    <workbookView xWindow="120" yWindow="1845" windowWidth="15150" windowHeight="13665" xr2:uid="{7261792D-98E8-4AC5-8F75-EE6996BCDD4F}"/>
   </bookViews>
   <sheets>
     <sheet name="성적표" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="66">
   <si>
     <t>1학년 1학기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,10 @@
   </si>
   <si>
     <t>C0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도교수세미나 lll-ll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E028035-0D23-4920-8F44-0D2B11DF0C8B}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1382,10 +1386,10 @@
         <v>0.25</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1393,16 +1397,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1416,10 +1420,10 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1433,10 +1437,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1450,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>62</v>
@@ -1467,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>62</v>
@@ -1481,21 +1485,31 @@
         <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
@@ -1539,6 +1553,13 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
